--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.247594443654009</v>
+        <v>4.2475944472959597</v>
       </c>
       <c r="C2">
-        <v>7.8089283669520242</v>
+        <v>7.8089283669679403</v>
       </c>
       <c r="D2">
-        <v>8.5162417198844551</v>
+        <v>8.5162417087429105</v>
       </c>
       <c r="E2">
-        <v>18.536708224129683</v>
+        <v>18.536708215097136</v>
       </c>
       <c r="F2">
-        <v>7.4868973754297556</v>
+        <v>7.4868973601804782</v>
       </c>
       <c r="G2">
-        <v>4.5056240622551016</v>
+        <v>4.5056240580142344</v>
       </c>
       <c r="H2">
-        <v>6.0067054254593018</v>
+        <v>6.0067054195855576</v>
       </c>
       <c r="I2">
-        <v>10.232179084824367</v>
+        <v>10.232179081767811</v>
       </c>
       <c r="J2">
-        <v>10.834752436914876</v>
+        <v>10.834752427218895</v>
       </c>
       <c r="K2">
-        <v>3.6372835830038568</v>
+        <v>3.6372835726772976</v>
       </c>
       <c r="L2">
-        <v>2.0697441395947322</v>
+        <v>2.0697441429339989</v>
       </c>
       <c r="M2">
-        <v>-3.9532680901102566</v>
+        <v>-3.9532680873364399</v>
       </c>
       <c r="N2">
-        <v>11.345382912687498</v>
+        <v>11.345382911717692</v>
       </c>
       <c r="O2">
-        <v>6.7033353460980081</v>
+        <v>6.7033353295775555</v>
       </c>
       <c r="P2">
-        <v>13.678096051938901</v>
+        <v>13.678096053032846</v>
       </c>
       <c r="Q2">
-        <v>0.86490963094887263</v>
+        <v>0.86490962574394104</v>
       </c>
       <c r="R2">
-        <v>-3.9100618271603409</v>
+        <v>-3.9100618474287927</v>
       </c>
       <c r="S2">
-        <v>20.655015372846478</v>
+        <v>20.655015389008582</v>
       </c>
       <c r="T2">
-        <v>17.059661203069957</v>
+        <v>17.059661210691281</v>
       </c>
       <c r="U2">
-        <v>1.5730293661033841</v>
+        <v>1.5730293459880116</v>
       </c>
       <c r="V2">
-        <v>5.4725122011070084</v>
+        <v>5.4725121872767346</v>
       </c>
       <c r="W2">
-        <v>-8.3178447480390432</v>
+        <v>-8.3178447564606657</v>
       </c>
       <c r="X2">
-        <v>2.4919184095294895</v>
+        <v>2.4919184081619434</v>
       </c>
       <c r="Y2">
-        <v>15.642069153616603</v>
+        <v>15.642069137159226</v>
       </c>
       <c r="Z2">
-        <v>10.559233808772056</v>
+        <v>10.559233788744315</v>
       </c>
       <c r="AA2">
-        <v>13.868412552900487</v>
+        <v>13.868412535994615</v>
       </c>
       <c r="AB2">
-        <v>10.714096373023125</v>
+        <v>10.714096344636445</v>
       </c>
       <c r="AC2">
-        <v>1.7329804055546845</v>
+        <v>1.7329803937328876</v>
       </c>
       <c r="AD2">
-        <v>19.301106471078207</v>
+        <v>19.301106436657783</v>
       </c>
       <c r="AE2">
-        <v>8.0081279822070428</v>
+        <v>8.0081279673463683</v>
       </c>
       <c r="AF2">
-        <v>11.377360111392356</v>
+        <v>11.377360097771245</v>
       </c>
       <c r="AG2">
-        <v>10.759655220659475</v>
+        <v>10.759655205118364</v>
       </c>
       <c r="AH2">
-        <v>12.910002124720442</v>
+        <v>12.91000210846812</v>
       </c>
       <c r="AI2">
-        <v>11.407780221512326</v>
+        <v>11.407780196742678</v>
       </c>
       <c r="AJ2">
-        <v>7.726240124560988</v>
+        <v>7.7262401119595765</v>
       </c>
       <c r="AK2">
-        <v>9.4770716327092472</v>
+        <v>9.4770716187265336</v>
       </c>
       <c r="AL2">
-        <v>-0.46745296839260675</v>
+        <v>-0.46745298188791651</v>
       </c>
       <c r="AM2">
-        <v>11.217134244576279</v>
+        <v>11.217134232315388</v>
       </c>
       <c r="AN2">
-        <v>10.456351145193779</v>
+        <v>10.456351123951187</v>
       </c>
       <c r="AO2">
-        <v>19.626859630658721</v>
+        <v>19.626859621849007</v>
       </c>
       <c r="AP2">
-        <v>13.971890931749442</v>
+        <v>13.971890908157917</v>
       </c>
       <c r="AQ2">
-        <v>0.33247769857564435</v>
+        <v>0.33247768459464311</v>
       </c>
       <c r="AR2">
-        <v>22.4244542043485</v>
+        <v>22.424454194618356</v>
       </c>
       <c r="AS2">
-        <v>15.388287332984049</v>
+        <v>15.388287312202358</v>
       </c>
       <c r="AT2">
-        <v>8.9836752450721917</v>
+        <v>8.983675227808277</v>
       </c>
       <c r="AU2">
-        <v>12.260800277587329</v>
+        <v>12.260800249545952</v>
       </c>
       <c r="AV2">
-        <v>2.3371150342192166</v>
+        <v>2.3371150089323862</v>
       </c>
       <c r="AW2">
-        <v>4.672678845243631</v>
+        <v>4.6726788265512269</v>
       </c>
       <c r="AX2">
-        <v>14.690008916182244</v>
+        <v>14.690008893087047</v>
       </c>
       <c r="AY2">
-        <v>19.502895505580931</v>
+        <v>19.502895486566892</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.7902818452035874</v>
+        <v>4.7902818349585559</v>
       </c>
       <c r="C3">
-        <v>5.3716677699977211</v>
+        <v>5.3716677516763198</v>
       </c>
       <c r="D3">
-        <v>13.620190372928811</v>
+        <v>13.620190344497892</v>
       </c>
       <c r="E3">
-        <v>13.691639916406778</v>
+        <v>13.691639899195756</v>
       </c>
       <c r="F3">
-        <v>4.5525169250089519</v>
+        <v>4.5525169116908586</v>
       </c>
       <c r="G3">
-        <v>10.534855276677391</v>
+        <v>10.534855267946746</v>
       </c>
       <c r="H3">
-        <v>0.26419447531060314</v>
+        <v>0.26419446711106787</v>
       </c>
       <c r="I3">
-        <v>4.2130905491191655</v>
+        <v>4.2130905409067765</v>
       </c>
       <c r="J3">
-        <v>13.677633795862931</v>
+        <v>13.677633790376433</v>
       </c>
       <c r="K3">
-        <v>23.52270024490408</v>
+        <v>23.522700244216402</v>
       </c>
       <c r="L3">
-        <v>13.910025646722559</v>
+        <v>13.910025636013117</v>
       </c>
       <c r="M3">
-        <v>3.1929662518684196</v>
+        <v>3.1927340802045663</v>
       </c>
       <c r="N3">
-        <v>8.6204950870102905</v>
+        <v>8.6204950727559577</v>
       </c>
       <c r="O3">
-        <v>-8.9478306826565159</v>
+        <v>-8.9478306892368096</v>
       </c>
       <c r="P3">
-        <v>12.558372153431741</v>
+        <v>12.558372125332419</v>
       </c>
       <c r="Q3">
-        <v>6.5095167955690059</v>
+        <v>6.5095167902337536</v>
       </c>
       <c r="R3">
-        <v>-1.1122447186663891</v>
+        <v>-1.112244729665953</v>
       </c>
       <c r="S3">
-        <v>16.346365775818036</v>
+        <v>16.346365771842308</v>
       </c>
       <c r="T3">
-        <v>16.043448587156618</v>
+        <v>16.043448572486426</v>
       </c>
       <c r="U3">
-        <v>10.030850805639851</v>
+        <v>10.030850793777461</v>
       </c>
       <c r="V3">
-        <v>10.629502324710629</v>
+        <v>10.629502315141728</v>
       </c>
       <c r="W3">
-        <v>-0.86391339254700483</v>
+        <v>-0.86391340250890636</v>
       </c>
       <c r="X3">
-        <v>-1.4902736800300502</v>
+        <v>-1.4902736902140603</v>
       </c>
       <c r="Y3">
-        <v>19.077188271684925</v>
+        <v>19.077188247398219</v>
       </c>
       <c r="Z3">
-        <v>12.503313735221127</v>
+        <v>12.503313712503527</v>
       </c>
       <c r="AA3">
-        <v>14.555866881948312</v>
+        <v>14.555866863549717</v>
       </c>
       <c r="AB3">
-        <v>12.721691925252905</v>
+        <v>12.721691900607929</v>
       </c>
       <c r="AC3">
-        <v>16.752880175933043</v>
+        <v>16.752880164747111</v>
       </c>
       <c r="AD3">
-        <v>20.568216172816697</v>
+        <v>20.568216154362496</v>
       </c>
       <c r="AE3">
-        <v>13.400747090803605</v>
+        <v>13.400747083096753</v>
       </c>
       <c r="AF3">
-        <v>10.546962531659659</v>
+        <v>10.546962514411952</v>
       </c>
       <c r="AG3">
-        <v>5.8569125434927614</v>
+        <v>5.8569125328801945</v>
       </c>
       <c r="AH3">
-        <v>5.0625134927990914</v>
+        <v>5.0625134785500947</v>
       </c>
       <c r="AI3">
-        <v>36.037496048464959</v>
+        <v>36.037496023030556</v>
       </c>
       <c r="AJ3">
-        <v>16.339063749384295</v>
+        <v>16.339063741728786</v>
       </c>
       <c r="AK3">
-        <v>14.55852199039262</v>
+        <v>14.558521966786699</v>
       </c>
       <c r="AL3">
-        <v>9.4411431350214627</v>
+        <v>9.4411431110406312</v>
       </c>
       <c r="AM3">
-        <v>8.4310906133750692</v>
+        <v>8.4310905856397014</v>
       </c>
       <c r="AN3">
-        <v>-7.3809770117881044</v>
+        <v>-7.3809770222845614</v>
       </c>
       <c r="AO3">
-        <v>17.779453525457789</v>
+        <v>17.779453482734901</v>
       </c>
       <c r="AP3">
-        <v>4.7799242457518147</v>
+        <v>4.7799242276759628</v>
       </c>
       <c r="AQ3">
-        <v>8.2448823653408851</v>
+        <v>8.2448823393958435</v>
       </c>
       <c r="AR3">
-        <v>26.192368685761622</v>
+        <v>26.192368672064333</v>
       </c>
       <c r="AS3">
-        <v>13.5314219409833</v>
+        <v>13.531421926899341</v>
       </c>
       <c r="AT3">
-        <v>12.925517219780957</v>
+        <v>12.925517192495484</v>
       </c>
       <c r="AU3">
-        <v>8.2152627512728529</v>
+        <v>8.2152627503586189</v>
       </c>
       <c r="AV3">
-        <v>4.2777020911339747</v>
+        <v>4.2777020715517438</v>
       </c>
       <c r="AW3">
-        <v>4.493903241761366</v>
+        <v>4.4939032247001904</v>
       </c>
       <c r="AX3">
-        <v>7.1030869558923797</v>
+        <v>7.1030869407829016</v>
       </c>
       <c r="AY3">
-        <v>22.15093757319201</v>
+        <v>22.15093754482595</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.2475944472959597</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.8089283669679403</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.5162417087429105</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>18.536708215097136</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>7.4868973601804782</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.5056240580142344</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.0067054195855576</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.232179081767811</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.834752427218895</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.6372835726772976</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.0697441429339989</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-3.9532680873364399</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.345382911717692</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.7033353295775555</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.678096053032846</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.86490962574394104</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-3.9100618474287927</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.655015389008582</v>
+        <v>14.226067686678959</v>
       </c>
       <c r="T2">
         <v>17.059661210691281</v>
@@ -588,55 +477,55 @@
         <v>10.559233788744315</v>
       </c>
       <c r="AA2">
-        <v>13.868412535994615</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>10.714096344636445</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.7329803937328876</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>19.301106436657783</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>8.0081279673463683</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.377360097771245</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.759655205118364</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.91000210846812</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>11.407780196742678</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.7262401119595765</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>9.4770716187265336</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.46745298188791651</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>11.217134232315388</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>10.456351123951187</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>19.626859621849007</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.971890908157917</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.33247768459464311</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>22.424454194618356</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>4.7902818349585559</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.3716677516763198</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.620190344497892</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.691639899195756</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.5525169116908586</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.534855267946746</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.26419446711106787</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.2130905409067765</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13.677633790376433</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>23.522700244216402</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.910025636013117</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.1927340802045663</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.6204950727559577</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-8.9478306892368096</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.558372125332419</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>6.5095167902337536</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-1.112244729665953</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>16.346365771842308</v>
@@ -743,55 +629,55 @@
         <v>12.503313712503527</v>
       </c>
       <c r="AA3">
-        <v>14.555866863549717</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>12.721691900607929</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>16.752880164747111</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>20.568216154362496</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.400747083096753</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>10.546962514411952</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>5.8569125328801945</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.0625134785500947</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>36.037496023030556</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>16.339063741728786</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.558521966786699</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>9.4411431110406312</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.4310905856397014</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-7.3809770222845614</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>17.779453482734901</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.7799242276759628</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.2448823393958435</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>26.192368672064333</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.247594443654009</v>
-      </c>
       <c r="C2">
-        <v>4.9475454136415706</v>
-      </c>
-      <c r="D2">
-        <v>8.5162417198844551</v>
-      </c>
-      <c r="E2">
-        <v>18.536708224129683</v>
+        <v>-3.9100618474287927</v>
       </c>
       <c r="F2">
         <v>7.4868973754297556</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.7902818452035874</v>
+        <v>-3.6976792365190221</v>
       </c>
       <c r="C3">
-        <v>5.3716677699977211</v>
+        <v>-1.112244729665953</v>
       </c>
       <c r="D3">
-        <v>13.620190372928811</v>
+        <v>-6.8681887904253571</v>
       </c>
       <c r="E3">
-        <v>13.691639916406778</v>
+        <v>10.343436047236189</v>
       </c>
       <c r="F3">
         <v>4.5525169250089519</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.247594443654009</v>
-      </c>
-      <c r="C2">
-        <v>4.9475454136415706</v>
+        <v>10.058760961894023</v>
       </c>
       <c r="D2">
-        <v>8.5162417198844551</v>
-      </c>
-      <c r="E2">
-        <v>18.536708224129683</v>
+        <v>11.217134232315388</v>
       </c>
       <c r="F2">
         <v>7.4868973754297556</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.7902818452035874</v>
+        <v>8.6204950727559577</v>
       </c>
       <c r="C3">
-        <v>5.3716677699977211</v>
+        <v>-3.6976792365190221</v>
       </c>
       <c r="D3">
-        <v>13.620190372928811</v>
+        <v>8.4310905856397014</v>
       </c>
       <c r="E3">
-        <v>20.570159496066822</v>
+        <v>-6.8681887904253571</v>
       </c>
       <c r="F3">
         <v>4.5525169250089519</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.2475944472959597</v>
+      </c>
+      <c r="C2">
+        <v>4.9475454070147435</v>
+      </c>
+      <c r="D2">
+        <v>8.5162417087429105</v>
+      </c>
+      <c r="E2">
+        <v>18.536708215097136</v>
+      </c>
+      <c r="F2">
+        <v>7.4868973601804782</v>
+      </c>
+      <c r="G2">
+        <v>7.3720905614901895</v>
+      </c>
+      <c r="H2">
+        <v>6.0067054195855576</v>
+      </c>
+      <c r="I2">
+        <v>13.682705871226666</v>
+      </c>
+      <c r="J2">
+        <v>10.834752427218895</v>
+      </c>
+      <c r="K2">
+        <v>3.6372835726772976</v>
+      </c>
+      <c r="L2">
+        <v>1.4469200351423268</v>
+      </c>
+      <c r="M2">
+        <v>2.5210666510749178</v>
+      </c>
+      <c r="N2">
         <v>10.058760961894023</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.541194376583427</v>
+      </c>
+      <c r="Q2">
+        <v>0.86490962574394104</v>
+      </c>
+      <c r="R2">
+        <v>-3.9100618474287927</v>
+      </c>
+      <c r="T2">
+        <v>13.962254548562832</v>
+      </c>
+      <c r="U2">
+        <v>1.5730293459880116</v>
+      </c>
+      <c r="V2">
+        <v>8.2667678542915084</v>
+      </c>
+      <c r="W2">
+        <v>-8.3178447564606657</v>
+      </c>
+      <c r="X2">
+        <v>2.4919184081619434</v>
+      </c>
+      <c r="Y2">
+        <v>15.642069137159226</v>
+      </c>
+      <c r="Z2">
+        <v>10.559233788744315</v>
+      </c>
+      <c r="AA2">
+        <v>13.868412535994615</v>
+      </c>
+      <c r="AB2">
+        <v>10.714096344636445</v>
+      </c>
+      <c r="AC2">
+        <v>1.7329803937328876</v>
+      </c>
+      <c r="AD2">
+        <v>19.301106436657783</v>
+      </c>
+      <c r="AE2">
+        <v>8.0081279673463683</v>
+      </c>
+      <c r="AF2">
+        <v>11.377360097771245</v>
+      </c>
+      <c r="AG2">
+        <v>10.759655205118364</v>
+      </c>
+      <c r="AH2">
+        <v>12.91000210846812</v>
+      </c>
+      <c r="AI2">
+        <v>11.407780196742678</v>
+      </c>
+      <c r="AJ2">
+        <v>7.7262401119595765</v>
+      </c>
+      <c r="AK2">
+        <v>9.4770716187265336</v>
+      </c>
+      <c r="AL2">
+        <v>-0.46745298188791651</v>
+      </c>
+      <c r="AM2">
         <v>11.217134232315388</v>
       </c>
-      <c r="F2">
-        <v>7.4868973754297556</v>
-      </c>
-      <c r="G2">
-        <v>7.3720905612734811</v>
-      </c>
-      <c r="H2">
-        <v>6.0067054254593018</v>
-      </c>
-      <c r="I2">
-        <v>13.682705886458443</v>
-      </c>
-      <c r="J2">
-        <v>10.834752436914876</v>
-      </c>
-      <c r="K2">
-        <v>3.6372835830038568</v>
-      </c>
-      <c r="L2">
-        <v>1.4469200435340355</v>
-      </c>
-      <c r="M2">
-        <v>2.5210666414009637</v>
-      </c>
-      <c r="N2">
-        <v>10.058760968464462</v>
-      </c>
-      <c r="P2">
-        <v>14.541194374207073</v>
-      </c>
-      <c r="Q2">
-        <v>0.86490963094887263</v>
-      </c>
-      <c r="R2">
-        <v>-3.9100618271603409</v>
-      </c>
-      <c r="T2">
-        <v>13.962254555344856</v>
-      </c>
-      <c r="U2">
-        <v>1.5730293661033841</v>
-      </c>
-      <c r="V2">
-        <v>8.2667678760824543</v>
-      </c>
-      <c r="W2">
-        <v>-8.3178447480390432</v>
-      </c>
-      <c r="X2">
-        <v>2.4919184095294895</v>
-      </c>
-      <c r="Y2">
-        <v>15.642069153616603</v>
-      </c>
-      <c r="Z2">
-        <v>10.559233808772056</v>
-      </c>
-      <c r="AA2">
-        <v>13.868412552900487</v>
-      </c>
-      <c r="AB2">
-        <v>10.714096373023125</v>
-      </c>
-      <c r="AC2">
-        <v>1.7329804055546845</v>
-      </c>
-      <c r="AD2">
-        <v>19.301106471078207</v>
-      </c>
-      <c r="AE2">
-        <v>8.0081279822070428</v>
-      </c>
-      <c r="AF2">
-        <v>11.377360111392356</v>
-      </c>
-      <c r="AG2">
-        <v>10.759655220659475</v>
-      </c>
-      <c r="AH2">
-        <v>12.910002124720442</v>
-      </c>
-      <c r="AI2">
-        <v>11.407780221512326</v>
-      </c>
-      <c r="AJ2">
-        <v>7.726240124560988</v>
-      </c>
-      <c r="AK2">
-        <v>9.4770716327092472</v>
-      </c>
-      <c r="AL2">
-        <v>-0.46745296839260675</v>
-      </c>
-      <c r="AM2">
-        <v>11.217134244576279</v>
-      </c>
       <c r="AO2">
-        <v>19.626859630658721</v>
+        <v>19.626859621849007</v>
       </c>
       <c r="AP2">
-        <v>16.162852987732705</v>
+        <v>16.162852969617404</v>
       </c>
       <c r="AR2">
-        <v>22.4244542043485</v>
+        <v>22.424454194618356</v>
       </c>
       <c r="AS2">
-        <v>15.388287332984049</v>
+        <v>15.388287312202358</v>
       </c>
       <c r="AT2">
-        <v>8.9836752450721917</v>
+        <v>8.983675227808277</v>
       </c>
       <c r="AU2">
-        <v>6.9098260950700663</v>
+        <v>6.9098260817538986</v>
       </c>
       <c r="AV2">
-        <v>2.3371150342192166</v>
+        <v>2.3371150089323862</v>
       </c>
       <c r="AW2">
-        <v>4.672678845243631</v>
+        <v>4.6726788265512269</v>
       </c>
       <c r="AX2">
-        <v>14.690008916182244</v>
+        <v>14.690008893087047</v>
       </c>
       <c r="AY2">
-        <v>19.502895505580931</v>
+        <v>19.502895486566892</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.7902818349585559</v>
+      </c>
+      <c r="C3">
+        <v>5.3716677516763198</v>
+      </c>
+      <c r="D3">
+        <v>13.620190344497892</v>
+      </c>
+      <c r="E3">
+        <v>20.570159476107023</v>
+      </c>
+      <c r="F3">
+        <v>4.5525169116908586</v>
+      </c>
+      <c r="G3">
+        <v>10.534855267946746</v>
+      </c>
+      <c r="H3">
+        <v>0.26419446711106787</v>
+      </c>
+      <c r="I3">
+        <v>4.2130905409067765</v>
+      </c>
+      <c r="J3">
+        <v>13.677633790376433</v>
+      </c>
+      <c r="K3">
+        <v>19.804356052491343</v>
+      </c>
+      <c r="L3">
+        <v>13.910025636013117</v>
+      </c>
+      <c r="M3">
+        <v>-1.752337537838045</v>
+      </c>
+      <c r="N3">
         <v>8.6204950727559577</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-3.6976792365190221</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>12.558372125332419</v>
+      </c>
+      <c r="Q3">
+        <v>6.5095167902337536</v>
+      </c>
+      <c r="R3">
+        <v>-1.112244729665953</v>
+      </c>
+      <c r="S3">
+        <v>16.346365771842308</v>
+      </c>
+      <c r="T3">
+        <v>16.043448572486426</v>
+      </c>
+      <c r="U3">
+        <v>10.030850793777461</v>
+      </c>
+      <c r="V3">
+        <v>12.31513631995562</v>
+      </c>
+      <c r="W3">
+        <v>-0.86391340250890636</v>
+      </c>
+      <c r="X3">
+        <v>-1.4902736902140603</v>
+      </c>
+      <c r="Y3">
+        <v>19.077188247398219</v>
+      </c>
+      <c r="Z3">
+        <v>12.503313712503527</v>
+      </c>
+      <c r="AA3">
+        <v>14.555866863549717</v>
+      </c>
+      <c r="AB3">
+        <v>12.721691900607929</v>
+      </c>
+      <c r="AC3">
+        <v>16.752880164747111</v>
+      </c>
+      <c r="AD3">
+        <v>20.568216154362496</v>
+      </c>
+      <c r="AE3">
+        <v>13.400747083096753</v>
+      </c>
+      <c r="AF3">
+        <v>10.546962514411952</v>
+      </c>
+      <c r="AG3">
+        <v>5.8569125328801945</v>
+      </c>
+      <c r="AH3">
+        <v>5.0625134785500947</v>
+      </c>
+      <c r="AI3">
+        <v>12.95423600199608</v>
+      </c>
+      <c r="AJ3">
+        <v>16.339063741728786</v>
+      </c>
+      <c r="AK3">
+        <v>14.558521966786699</v>
+      </c>
+      <c r="AL3">
+        <v>9.4411431110406312</v>
+      </c>
+      <c r="AM3">
         <v>8.4310905856397014</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-6.8681887904253571</v>
       </c>
-      <c r="F3">
-        <v>4.5525169250089519</v>
-      </c>
-      <c r="G3">
-        <v>10.534855276677391</v>
-      </c>
-      <c r="H3">
-        <v>0.26419447531060314</v>
-      </c>
-      <c r="I3">
-        <v>4.2130905491191655</v>
-      </c>
-      <c r="J3">
-        <v>13.677633795862931</v>
-      </c>
-      <c r="K3">
-        <v>19.804356061884754</v>
-      </c>
-      <c r="L3">
-        <v>13.910025646722559</v>
-      </c>
-      <c r="M3">
-        <v>-1.7521820816271756</v>
-      </c>
-      <c r="N3">
-        <v>8.6204950870102905</v>
-      </c>
-      <c r="O3">
-        <v>-3.6976792254844639</v>
-      </c>
-      <c r="P3">
-        <v>12.558372153431741</v>
-      </c>
-      <c r="Q3">
-        <v>6.5095167955690059</v>
-      </c>
-      <c r="R3">
-        <v>-1.1122447186663891</v>
-      </c>
-      <c r="S3">
-        <v>16.346365775818036</v>
-      </c>
-      <c r="T3">
-        <v>16.043448587156618</v>
-      </c>
-      <c r="U3">
-        <v>10.030850805639851</v>
-      </c>
-      <c r="V3">
-        <v>12.315136340993</v>
-      </c>
-      <c r="W3">
-        <v>-0.86391339254700483</v>
-      </c>
-      <c r="X3">
-        <v>-1.4902736800300502</v>
-      </c>
-      <c r="Y3">
-        <v>19.077188271684925</v>
-      </c>
-      <c r="Z3">
-        <v>12.503313735221127</v>
-      </c>
-      <c r="AA3">
-        <v>14.555866881948312</v>
-      </c>
-      <c r="AB3">
-        <v>12.721691925252905</v>
-      </c>
-      <c r="AC3">
-        <v>16.752880175933043</v>
-      </c>
-      <c r="AD3">
-        <v>20.568216172816697</v>
-      </c>
-      <c r="AE3">
-        <v>13.400747090803605</v>
-      </c>
-      <c r="AF3">
-        <v>10.546962531659659</v>
-      </c>
-      <c r="AG3">
-        <v>5.8569125434927614</v>
-      </c>
-      <c r="AH3">
-        <v>5.0625134927990914</v>
-      </c>
-      <c r="AI3">
-        <v>12.954236028871563</v>
-      </c>
-      <c r="AJ3">
-        <v>16.339063749384295</v>
-      </c>
-      <c r="AK3">
-        <v>14.55852199039262</v>
-      </c>
-      <c r="AL3">
-        <v>9.4411431350214627</v>
-      </c>
-      <c r="AM3">
-        <v>8.4310906133750692</v>
-      </c>
-      <c r="AN3">
-        <v>-6.8681887766075818</v>
-      </c>
       <c r="AO3">
-        <v>17.779453525457789</v>
+        <v>17.779453482734901</v>
       </c>
       <c r="AP3">
-        <v>4.7799242457518147</v>
+        <v>4.7799242276759628</v>
       </c>
       <c r="AQ3">
-        <v>10.343436052110782</v>
+        <v>10.343436047236189</v>
       </c>
       <c r="AR3">
-        <v>26.192368685761622</v>
+        <v>26.192368672064333</v>
       </c>
       <c r="AS3">
-        <v>13.5314219409833</v>
+        <v>13.531421926899341</v>
       </c>
       <c r="AT3">
-        <v>12.925517219780957</v>
+        <v>12.925517192495484</v>
       </c>
       <c r="AU3">
-        <v>8.8024082498046852</v>
+        <v>8.8024082670418267</v>
       </c>
       <c r="AV3">
-        <v>4.2777020911339747</v>
+        <v>4.2777020715517438</v>
       </c>
       <c r="AW3">
-        <v>4.493903241761366</v>
+        <v>4.4939032247001904</v>
       </c>
       <c r="AX3">
-        <v>7.1030869558923797</v>
+        <v>7.1030869407829016</v>
       </c>
       <c r="AY3">
-        <v>22.15093757319201</v>
+        <v>22.15093754482595</v>
       </c>
     </row>
   </sheetData>
